--- a/JNLTRV/JNLTRV-YohCardis.xlsx
+++ b/JNLTRV/JNLTRV-YohCardis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps16gnt\Documents\GitHub\P_Mobile\JNLTRV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F9156A-DDC2-48DD-A676-717BAB116B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B758DA-810F-4AB8-932D-8E7553555B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>continuer et fin la maquette figma</t>
+  </si>
+  <si>
+    <t>documentation sur maui</t>
+  </si>
+  <si>
+    <t>debut de developement et mise en place</t>
+  </si>
+  <si>
+    <t>j'ai avancé sur la page d'accueil de mon application j ai bien avancé</t>
   </si>
 </sst>
 </file>
@@ -443,6 +452,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -450,88 +462,11 @@
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -700,6 +635,80 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1063,13 +1072,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.13541666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.2083333333333336E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.125E-2</c:v>
@@ -1787,18 +1796,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1994,7 +2003,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2029,11 +2038,11 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2047,7 +2056,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 4 heurs 30 minutes</v>
+        <v>0 jours 9 heurs 0 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2062,24 +2071,24 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="57"/>
     </row>
     <row r="6" spans="1:15" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -2214,15 +2223,25 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="str">
+      <c r="A11" s="17">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v/>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="37"/>
+        <v>16</v>
+      </c>
+      <c r="B11" s="51">
+        <v>45397</v>
+      </c>
+      <c r="C11" s="52">
+        <v>1</v>
+      </c>
+      <c r="D11" s="53">
+        <v>15</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="M11" t="s">
         <v>6</v>
@@ -2239,11 +2258,19 @@
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v>13</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="55">
+        <v>44666</v>
+      </c>
+      <c r="C12" s="48">
+        <v>1</v>
+      </c>
       <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="37"/>
+      <c r="E12" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="M12" t="s">
         <v>7</v>
@@ -2256,15 +2283,25 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="str">
+      <c r="A13" s="17">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="37"/>
+        <v>17</v>
+      </c>
+      <c r="B13" s="51">
+        <v>45404</v>
+      </c>
+      <c r="C13" s="52">
+        <v>2</v>
+      </c>
+      <c r="D13" s="53">
+        <v>15</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="18"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -8541,28 +8578,28 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8637,11 +8674,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8649,7 +8686,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0</v>
+        <v>0.13541666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8673,11 +8710,11 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8685,7 +8722,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8758,7 +8795,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.10416666666666666</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8995,6 +9032,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9003,15 +9049,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9034,6 +9071,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9042,12 +9087,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>